--- a/medicine/Enfance/Nathalie_Jomard/Nathalie_Jomard.xlsx
+++ b/medicine/Enfance/Nathalie_Jomard/Nathalie_Jomard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathalie Jomard, née au XXe siècle, est une illustratrice et blogueuse française.
 Elle est l'autrice d'un blog, Petit précis de grumeautique.
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nathalie Jomard a étudié à l'École nationale supérieure des beaux-arts de Lyon[1]. Elle est titulaire d’un DESS en communication multimédia ainsi que d’un diplôme de sciences-po[Lequel ?][1]. Au printemps 2008, en tant que loisir, elle lance un blog dessiné sur sa vie de jeune mère, le Petit précis de grumeautique, qui après plusieurs mois devient un livre publié à compte d'éditeur sous le titre Le Petit Grumeau illustré[1]. La série connaît trois volumes entre 2009 et 2017[2]. En parallèle, l'illustratrice produit une série sur le chat Bouboule, qui apparaissait déjà dans les narrations du Petit Grumeau illustré[3] ; cette seconde série connaît quatre volumes entre 2015 et 2020.
-À partir de 2011, sur un scénario de Jif, elle illustre une adaptation de l'essai Les hommes viennent de Mars, les femmes viennent de Vénus de John Gray (éd. Jungle)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathalie Jomard a étudié à l'École nationale supérieure des beaux-arts de Lyon. Elle est titulaire d’un DESS en communication multimédia ainsi que d’un diplôme de sciences-po[Lequel ?]. Au printemps 2008, en tant que loisir, elle lance un blog dessiné sur sa vie de jeune mère, le Petit précis de grumeautique, qui après plusieurs mois devient un livre publié à compte d'éditeur sous le titre Le Petit Grumeau illustré. La série connaît trois volumes entre 2009 et 2017. En parallèle, l'illustratrice produit une série sur le chat Bouboule, qui apparaissait déjà dans les narrations du Petit Grumeau illustré ; cette seconde série connaît quatre volumes entre 2015 et 2020.
+À partir de 2011, sur un scénario de Jif, elle illustre une adaptation de l'essai Les hommes viennent de Mars, les femmes viennent de Vénus de John Gray (éd. Jungle).
 </t>
         </is>
       </c>
@@ -546,17 +560,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Album
-Le Petit Grumeau Illustré - Chroniques d'une apprentie maman, Éd. Michel Lafon, 2009  (ISBN 978-2749909912).
+          <t>Album</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Petit Grumeau Illustré - Chroniques d'une apprentie maman, Éd. Michel Lafon, 2009  (ISBN 978-2749909912).
 Le Petit Grumeau illustré, tome 2 - Chroniques de la lose parentale, Éd. Michel Lafon, 2012  (ISBN 2749916119).
 Mon album de Grumeau, Éd. Michel Lafon, 2014  (ISBN 2749923441).
 Cahier d'exercices pour maman débutante, Éd. First, 2014  (ISBN 2754067418).
 Chat-Bouboule - Chronique d'un prédateur de salon, Éd. Michel Lafon, 2015  (ISBN 9782822211444).
 Chat-Bouboule - La nuit tous les chats sont gros, Ed. Michel Lafon, 2016
 Chat-Bouboule - Intermittent de la sieste, Ed. Michel Lafon, 2018
-Le Petit Grumeau Illustré - Métro, Grumeaux, Dodo, Éd. Michel Lafon, 2017
-Illustrations
-Maman débutante, Éd. First, 2009.
+Le Petit Grumeau Illustré - Métro, Grumeaux, Dodo, Éd. Michel Lafon, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nathalie_Jomard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nathalie_Jomard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Maman débutante, Éd. First, 2009.
 Bientôt maman, Éd. First, 2009.
 Mon mariage, Éd. First, 2009.
 Mon enfant rentre à l'école, Éd. First, 2009.
